--- a/01-planning/Literature Matrix .xlsx
+++ b/01-planning/Literature Matrix .xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joshuahellewell/Desktop/02-msc/01-modules/MSc Project - 771952/02-planning/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joshuahellewell/Desktop/02-msc/01-modules/MSc Project - 771952/01-planning/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51128887-6604-924F-8F91-6D143B51F74D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7108916-92A3-E645-BDD3-69C42ACB5EDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="320" yWindow="760" windowWidth="34140" windowHeight="21580" xr2:uid="{781DB44C-E4D8-9E42-A974-8BBF4B8E3D6B}"/>
+    <workbookView xWindow="11100" yWindow="920" windowWidth="23300" windowHeight="21260" xr2:uid="{781DB44C-E4D8-9E42-A974-8BBF4B8E3D6B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
   <si>
     <t>Source ID</t>
   </si>
@@ -50,9 +50,6 @@
     <t>Title</t>
   </si>
   <si>
-    <t>Publication Type</t>
-  </si>
-  <si>
     <t>Date</t>
   </si>
   <si>
@@ -68,7 +65,72 @@
     <t>Future</t>
   </si>
   <si>
-    <t>Deep learning with small datasets: using autoencoders to address limited datasets in construction management</t>
+    <t>Doersch, C. (2016). Variational Autoencoders Tutorial. ArXiv.</t>
+  </si>
+  <si>
+    <t>C. Doersch</t>
+  </si>
+  <si>
+    <t>Tutorial on VAE</t>
+  </si>
+  <si>
+    <t>VAE</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>Challenges</t>
+  </si>
+  <si>
+    <t>Keywords</t>
+  </si>
+  <si>
+    <t>Latent variable models
+Maximum likelihood</t>
+  </si>
+  <si>
+    <t>Before: Strong assumption about data structure. Make sever approximations. Computationally expensive inference. 
+VAE: How to define z and how to deal with integral over z.
+What if there are underlying correlations in the featurs/properties of data.</t>
+  </si>
+  <si>
+    <t>VAE trained with SGD
+P(x) of data for real images gets high value.
+- Latent because an output does not tell us which latent variable(s) produced it.
+- Output distribution often Gaussian in VAE.
+- Some z results in samples that are like X.
+Idea is to make training data more likely maximum likelihood.
+- VAE little to do with classical autoencoders.
+- Map variables from a normal dist through any sufficiently complicated function to get any distribution.
+- VAEs alter sampling procedure to make it faster.</t>
+  </si>
+  <si>
+    <t>Michelucci, U. (2022). An Introduction to Autoencoders. ArXiv.</t>
+  </si>
+  <si>
+    <t>Michelucci, U</t>
+  </si>
+  <si>
+    <t>An Introduction to Autoencoders</t>
+  </si>
+  <si>
+    <t>ArXiv</t>
+  </si>
+  <si>
+    <t>AE</t>
+  </si>
+  <si>
+    <t>Regularisation
+Learn representation (middle layer).</t>
+  </si>
+  <si>
+    <t>Typical neural networks.
+Latent feature is output of encoder.
+Bottleneck means latent features lower than inputs.
+Regularisation adds sparsity to the latent feature representation - add l1 or l2 to loss. Or tie weights of encoder &amp; decoder.
+Commonly use ReLU and Sigmoid. ReLU good for positive input x's. Sigmoid good for 0 and 1.
+If activation of output is sigmoid/softmax and input features between 0 and 1 can use Binary Cross Entropy.</t>
   </si>
 </sst>
 </file>
@@ -196,16 +258,31 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="17" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="17" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -541,400 +618,505 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C6962E3-151D-1D4A-A12F-943D212A2AA3}">
-  <dimension ref="A1:J30"/>
+  <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" topLeftCell="F2" zoomScale="170" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="4" width="10.83203125" style="1"/>
-    <col min="5" max="5" width="14.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="10.83203125" style="1"/>
+    <col min="1" max="1" width="10.83203125" style="4"/>
+    <col min="2" max="2" width="18.83203125" style="4" customWidth="1"/>
+    <col min="3" max="6" width="10.83203125" style="4"/>
+    <col min="7" max="7" width="8.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.6640625" style="4" customWidth="1"/>
+    <col min="9" max="9" width="33.83203125" style="4" customWidth="1"/>
+    <col min="10" max="10" width="25" style="4" customWidth="1"/>
+    <col min="11" max="16384" width="10.83203125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="H1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="L1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="5" t="s">
+    </row>
+    <row r="2" spans="1:12" ht="306" x14ac:dyDescent="0.2">
+      <c r="A2" s="5">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="238" x14ac:dyDescent="0.2">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="7" t="s">
+      <c r="C2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
-      <c r="J17" s="2"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
-      <c r="J18" s="2"/>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
-      <c r="I19" s="2"/>
-      <c r="J19" s="2"/>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
-      <c r="I20" s="2"/>
-      <c r="J20" s="2"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
-      <c r="I21" s="2"/>
-      <c r="J21" s="2"/>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
-      <c r="I22" s="2"/>
-      <c r="J22" s="2"/>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
-      <c r="I23" s="2"/>
-      <c r="J23" s="2"/>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
-      <c r="H24" s="2"/>
-      <c r="I24" s="2"/>
-      <c r="J24" s="2"/>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A25" s="2"/>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
-      <c r="H25" s="2"/>
-      <c r="I25" s="2"/>
-      <c r="J25" s="2"/>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A26" s="2"/>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2"/>
-      <c r="H26" s="2"/>
-      <c r="I26" s="2"/>
-      <c r="J26" s="2"/>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A27" s="2"/>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2"/>
-      <c r="H27" s="2"/>
-      <c r="I27" s="2"/>
-      <c r="J27" s="2"/>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A28" s="2"/>
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-      <c r="G28" s="2"/>
-      <c r="H28" s="2"/>
-      <c r="I28" s="2"/>
-      <c r="J28" s="2"/>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A29" s="2"/>
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
-      <c r="G29" s="2"/>
-      <c r="H29" s="2"/>
-      <c r="I29" s="2"/>
-      <c r="J29" s="2"/>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A30" s="2"/>
-      <c r="B30" s="2"/>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
-      <c r="G30" s="2"/>
-      <c r="H30" s="2"/>
-      <c r="I30" s="2"/>
-      <c r="J30" s="2"/>
+      <c r="D2" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="6">
+        <v>42583</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+    </row>
+    <row r="3" spans="1:12" ht="238" x14ac:dyDescent="0.2">
+      <c r="A3" s="7">
+        <v>2</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" s="8">
+        <v>44562</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A4" s="7"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5" s="7"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A6" s="7"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A7" s="7"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A8" s="7"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9" s="7"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10" s="7"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11" s="7"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="7"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12" s="7"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="7"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A13" s="7"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
+      <c r="L13" s="7"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A14" s="7"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="7"/>
+      <c r="L14" s="7"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A15" s="7"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="7"/>
+      <c r="L15" s="7"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A16" s="7"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="7"/>
+      <c r="L16" s="7"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A17" s="7"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="7"/>
+      <c r="L17" s="7"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A18" s="7"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="7"/>
+      <c r="K18" s="7"/>
+      <c r="L18" s="7"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A19" s="7"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="7"/>
+      <c r="K19" s="7"/>
+      <c r="L19" s="7"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A20" s="7"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="7"/>
+      <c r="K20" s="7"/>
+      <c r="L20" s="7"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A21" s="7"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="7"/>
+      <c r="K21" s="7"/>
+      <c r="L21" s="7"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A22" s="7"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="7"/>
+      <c r="J22" s="7"/>
+      <c r="K22" s="7"/>
+      <c r="L22" s="7"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A23" s="7"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="7"/>
+      <c r="J23" s="7"/>
+      <c r="K23" s="7"/>
+      <c r="L23" s="7"/>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A24" s="7"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="7"/>
+      <c r="J24" s="7"/>
+      <c r="K24" s="7"/>
+      <c r="L24" s="7"/>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A25" s="7"/>
+      <c r="B25" s="7"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="7"/>
+      <c r="I25" s="7"/>
+      <c r="J25" s="7"/>
+      <c r="K25" s="7"/>
+      <c r="L25" s="7"/>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A26" s="7"/>
+      <c r="B26" s="7"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="7"/>
+      <c r="H26" s="7"/>
+      <c r="I26" s="7"/>
+      <c r="J26" s="7"/>
+      <c r="K26" s="7"/>
+      <c r="L26" s="7"/>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A27" s="7"/>
+      <c r="B27" s="7"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="7"/>
+      <c r="H27" s="7"/>
+      <c r="I27" s="7"/>
+      <c r="J27" s="7"/>
+      <c r="K27" s="7"/>
+      <c r="L27" s="7"/>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A28" s="7"/>
+      <c r="B28" s="7"/>
+      <c r="C28" s="7"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="7"/>
+      <c r="H28" s="7"/>
+      <c r="I28" s="7"/>
+      <c r="J28" s="7"/>
+      <c r="K28" s="7"/>
+      <c r="L28" s="7"/>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A29" s="7"/>
+      <c r="B29" s="7"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="7"/>
+      <c r="H29" s="7"/>
+      <c r="I29" s="7"/>
+      <c r="J29" s="7"/>
+      <c r="K29" s="7"/>
+      <c r="L29" s="7"/>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A30" s="7"/>
+      <c r="B30" s="7"/>
+      <c r="C30" s="7"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="7"/>
+      <c r="G30" s="7"/>
+      <c r="H30" s="7"/>
+      <c r="I30" s="7"/>
+      <c r="J30" s="7"/>
+      <c r="K30" s="7"/>
+      <c r="L30" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/01-planning/Literature Matrix .xlsx
+++ b/01-planning/Literature Matrix .xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joshuahellewell/Desktop/02-msc/01-modules/MSc Project - 771952/01-planning/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7108916-92A3-E645-BDD3-69C42ACB5EDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C808C4A0-05C0-0E49-B6BD-FE81EF9367F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11100" yWindow="920" windowWidth="23300" windowHeight="21260" xr2:uid="{781DB44C-E4D8-9E42-A974-8BBF4B8E3D6B}"/>
+    <workbookView xWindow="160" yWindow="920" windowWidth="34240" windowHeight="21260" xr2:uid="{781DB44C-E4D8-9E42-A974-8BBF4B8E3D6B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="60">
   <si>
     <t>Source ID</t>
   </si>
@@ -44,9 +44,6 @@
     <t>Citation</t>
   </si>
   <si>
-    <t>Author(s)</t>
-  </si>
-  <si>
     <t>Title</t>
   </si>
   <si>
@@ -66,9 +63,6 @@
   </si>
   <si>
     <t>Doersch, C. (2016). Variational Autoencoders Tutorial. ArXiv.</t>
-  </si>
-  <si>
-    <t>C. Doersch</t>
   </si>
   <si>
     <t>Tutorial on VAE</t>
@@ -109,9 +103,6 @@
     <t>Michelucci, U. (2022). An Introduction to Autoencoders. ArXiv.</t>
   </si>
   <si>
-    <t>Michelucci, U</t>
-  </si>
-  <si>
     <t>An Introduction to Autoencoders</t>
   </si>
   <si>
@@ -123,6 +114,28 @@
   <si>
     <t>Regularisation
 Learn representation (middle layer).</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Curse of dimensionality: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+When dimensions increase, data becomes so sparse the number of observations to properly train algo gets bigger than existing dataset.</t>
+    </r>
   </si>
   <si>
     <t>Typical neural networks.
@@ -130,14 +143,282 @@
 Bottleneck means latent features lower than inputs.
 Regularisation adds sparsity to the latent feature representation - add l1 or l2 to loss. Or tie weights of encoder &amp; decoder.
 Commonly use ReLU and Sigmoid. ReLU good for positive input x's. Sigmoid good for 0 and 1.
-If activation of output is sigmoid/softmax and input features between 0 and 1 can use Binary Cross Entropy.</t>
+If activation of output is sigmoid/softmax and input features between 0 and 1 can use Binary Cross Entropy.
+Middle layer smaller than input extracts essential features.
+Quality of reconstruction decreases with extreme botlleneck.
+DR with AE:  training done with minin batches/ PCA requires all.
+Feedforward AE == PCA if: linear function for encoder &amp; decoder. MSE loss. Normalise inputs.
+Classification on latent features - faster (minor drop in accuracy).
+Anomaly detection. Checking reconstruction error. However, falls down if we do not know what anomaies are in the original data for training. If train on enture dataset, assumes outliers are negligible &amp; not influence learning.
+Instability of AEs: train different models and take average of reconstruction errors.</t>
+  </si>
+  <si>
+    <t>Lew, A. J., &amp; Buehler, M. J. (2021). Encoding and exploring latent design space of optimal material structures via a VAE-LSTM model. Forces in Mechanics, 5. https://doi.org/10.1016/j.finmec.2021.100054</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Encoding and exploring laten design space of material structures via a VAE-LSTM model </t>
+  </si>
+  <si>
+    <t>Forces in Mechanics</t>
+  </si>
+  <si>
+    <t>Material structure optimisatoin.
+VAE extract low dimensional representations of data from datasets of high complexity.
+Focused on image-based datasets.
+Bottleneck -&gt; Complex datasets in a simplified latent space.
+Unlike PCA - can achieve non-linear dimensionality reduction
+VAE probabilistic reparamertisation of encoded vector, regularise latent space through KL-divergence, such that close latent points give similar data.
+Regularsiation for completeness and continuity -&gt; logical new from arbitary latent vectors. 
+Easily understand &amp; explore potential designs via exploration of low dimensional latent space.
+Enabled extrapolation beyind the training data
+Created 7248 images.
+6 layer encoder (512x256), 8 layer decoder. (2d latent space), easy visualisation).
+More latent variables, less data compression and less 'lossy' reconstruction. 
+Latent size same as input size == identify function, perfect reconstruction.
+Go beyond original training data.
+Novel structures quickly access via LSTM. Can pick any latent space position and LSTM moves towards lower volume fraction cantilever design than seen in training.
+Can use disparate sources as starting point or inspiration for subsequent strcuture optimisatoin.</t>
+  </si>
+  <si>
+    <t>Opactity  in what is extracted from latent variables represent - making it difficult to navigate in a deliberate, meaningful way.
+LSTM allows prediction beyond original training.</t>
+  </si>
+  <si>
+    <t>Could be used as a rapid screen tool to gauge validity of an architect or production engineers design concepts prior to devoting the computational sources for a full finite element analysis or experimental resources for a physical mockup. 
+Latent space of larger dimension may assist in maintaining predictve accuracy while avoiding overfitting.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Could be used to simply understanding changes in a variable without an imposed ranking of what values are better. </t>
+  </si>
+  <si>
+    <t>Cho, M. W., Hwang, S. H., Jang, J. Y., Hwang, S. kwang, Cha, K. J., Park, D. Y., Song, K., &amp; Park, S. M. (2024). Beyond the limits of parametric design: Latent space exploration strategy enabling ultra-broadband acoustic metamaterials. Engineering Applications of Artificial Intelligence, 133, 108595. https://doi.org/10.1016/J.ENGAPPAI.2024.108595</t>
+  </si>
+  <si>
+    <t>Beyond the limits of parametric design: Latent space exploration strategy enabling ultra-broadband acoustic metamaterials</t>
+  </si>
+  <si>
+    <t>Engineering Applications of Artificial Intelligence.</t>
+  </si>
+  <si>
+    <t>Latent Space cVAE</t>
+  </si>
+  <si>
+    <t>Latent space - a dimension reduced space containing semantic information extracted from high-dimensional input data instead of directly utilising binary pixel image.
+Achieved by training deep NN, VAE.
+A Conditionoal VAE used - to enforce a condition.
+Geometric features from images and peak frequency information.
+Use GAE on latent space.
+Used cross section from VAR as image into cVAE
+VAE encodes probabilty distribution of the input data. VAE encodes input data x into latent space, the CVAE additionally encodes label information y into the latent space to impose condiition on the generated data.
+By sampling from latent space with a desired label, trained decoder generates new data corresponding label.
+Binary cross entropy between input data and generated by encoder. If training done only with reconstruction error, model memorises input data.
+KL divergence regularisation term. Adds random noise to latent space and makes approximator posterior close to prior distribution.
+Latent vector dimension is 16 - reducing dimensionality contribute to faster convegrence for GA. 
+48k training images, 5355 test data.
+Use resnet.
+i59500F GTX 1660.</t>
+  </si>
+  <si>
+    <t>Latent Space</t>
+  </si>
+  <si>
+    <t>Geometric shape of strcutures depitced on pixel image rather than design paramaters of structure has high degree of freedom, but design space is too wide to search to search fo desired performance and physical constraints.
+For 128x64 images -&gt; 2^(128*64) = 1.09x10^2466 images design space. Only a few images embody meaningful shape. Optimisation on this (GA) may result in lacking functional shape. 'Immense computational ineffifiency due to number of candidates to be considered, and substantial dimensionality'.
+Latent space created by cVAE that contains semantic information of high-dimensional data. Random instance in continuous latent space encodes semantic information of high-dimensional data &amp; instances encoding similar semantic information are mapped adjacently .
+Can peform several design &amp; optimisation methods performed in latent space: Gradient based optimisation, interpolation, clustering &amp; distance based design generation.
+Laten space design approaches Implemented into various design techniques without compromising the semantic information - challenge often in pixel-image based approaches.
+Reduces computationl cost due to reduced dimensionality. GA performed on latent space to explore VAR.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">GA - heuristic algorithm that utilises probabilistic  searhcing strategy inspired by natural selection &amp; evolution.
+Used for problem solving in spaces withou well defined formalised solutions.
+Latent vectors as chromosomes, chromsomes sampled from latent space input to pre-trained decoder.
+16-d latent space generated by inputting images to the encoder of the cVAE is reduced to a 2d representation, by performing PCA.
+Performed a 2D representation of the latent space to visualise convgerence of chromosomes.
+See figure 5.
+Compared to </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Greedy Searching Algorithm: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Searches design paramaters by iteratively exploring the neighboring designs</t>
+    </r>
+  </si>
+  <si>
+    <t>Inverse design</t>
+  </si>
+  <si>
+    <t>Greedy Search Algorithm
+Genetic Algorithm
+Conditoinal VAE.</t>
+  </si>
+  <si>
+    <t>Using the method for meshes, voxels and points clouds challenging since deep generative models for 3D strcutures still exhibit insufficient performance.
+A blur or omission of detailed info could occur while reconstrucing images representing complex structures.
+applying skip connections on VAE for preservation of information and utilising mutual information to improve loss of info in latent space.</t>
+  </si>
+  <si>
+    <t>Increasing resolution of 2D cross-sections, GA otpimisation can be extended to optimisation of more complex mechanical structures.
+Other techniques: Reinforcement learning, bayesian optimisation on latent space to overcome the probaility and randomeness dependence of GA.</t>
+  </si>
+  <si>
+    <t>Park, S. M., Yoon, H. G., Lee, D. B., Choi, J. W., Kwon, H. Y., &amp; Won, C. (2022). Optimization of physical quantities in the autoencoder latent space. Scientific Reports, 12(1). https://doi.org/10.1038/s41598-022-13007-5</t>
+  </si>
+  <si>
+    <t>Optimisation of physicsl quantities in the autoencoder latent space.</t>
+  </si>
+  <si>
+    <t>Scientific Reports</t>
+  </si>
+  <si>
+    <t>AE
+Latent Space.</t>
+  </si>
+  <si>
+    <t>Virtual space where randome instances are located at to be converted into meaningful data.
+NN are differentaible, can use gradient based optimisation methods.
+Dataset should be chosen to contain rich features within a large variety of possible states, so that VAE can learn to asbtract input to latent codes.</t>
+  </si>
+  <si>
+    <t>Deep generative models approximate complicated high-dimensional distributions
+There input into the VAE is 128x128x3ch.
+Training dataset of 30,000 labrynth spin configs.
+Dataset shoud be sampled from entire data distributions
+VAE - KL loss. 
+KL - makes probability distribution of z equal to standard normal distribution, as L_kl decreases, values for sigma and mu approach 1 and 0 respectively (i.e., mean 0 and variance 1).</t>
+  </si>
+  <si>
+    <t>Optimisation/Exploration</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Previous: Evolutionary algorithms to exlplore latent space of trained VAE.
+They use: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Single-code modification algorithm, genetic algorithm, stochastic algorithm.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+1) Uses adam optimiser modifies z* to minimise the spin config energy (objective). Searches near intial laten code. Locally optimised, and not uniqiely determined.
+2) GA Population composed of many individuals and population evolves. Crossover and mutation. Every iteration of GA, z* are decoded and evaluated with an objective function.
+3) Updates u* and sigma*  Adam optimiser updates u and sigma to minimise function.
+Optimisaton algorithms successfully determine the optimal solution in the latent space regardless of boundary conditions of the system.</t>
+    </r>
+  </si>
+  <si>
+    <t>VAE - uses reconstruction loss + Kullber-Leibler divergence loss term. 
+VAE - fully connected NN and CNNs.
+Encoder = x4 CNNs (16,32,64,128 and two FCN with 512 and 200 neurons). Maxpooling 2x2 on all CNN layers.
+Decoder = x2 FCNN 512 &amp; 8182, reshape, CNN with 64,32,16,3,3 and L2 normalisation layer. Upsampling before each CNN except last (2x2).
+Batch norm and leaky ReLU after all FCNN and CNN layers in both encoder and decoder except last layer of each.
+Periodic padding applied before all CNN layers.</t>
+  </si>
+  <si>
+    <t>Jabón, J., Corbera, S., Álvarez, R., &amp; Barea, R. (2024). Aerodynamic shape optimization using graph variational autoencoders and genetic algorithms. Structural and Multidisciplinary Optimization, 67(3). https://doi.org/10.1007/s00158-024-03771-5</t>
+  </si>
+  <si>
+    <t>Structural and Multidisciplinary Optimization</t>
+  </si>
+  <si>
+    <t>Graph VAE</t>
+  </si>
+  <si>
+    <t>GA
+Shape Optimisation
+Pareto front.
+Geometric Deep Learning.</t>
+  </si>
+  <si>
+    <t>Direct optimisation of non-parametric 3D geometries is still limited.
+Learn latent representation of non-parametric 3D datasets.
+Exploration by a genetic algorithm.
+Evaluates performance with CFD in order to guide optimisation..
+Most research focuses on 2D, euclidean or grid like strcutures. Generalise to 3D, graphs or manifoelds.
+Allows working with .stl , .ply and .obj</t>
+  </si>
+  <si>
+    <t>Parameterising aerodynamic shapes: B-splines, Bezier curves, FFD, class-shape transforms, Parsec and Bezier PARSEC.
+Computational cost greatly affected by compactness of design space.
+For 2D airfoilds - 10s of design variables. 
+For 3D - 100s of shape design variables for wing problems.
+PCA or SVD work for simple - but real world requires non-linearities.</t>
+  </si>
+  <si>
+    <t>Deep Learning for ASO in 3D limited to dimensionality reduction with free-form deformation methods or 2D sketches that are subsequently stacked.
+None of the work with 3D meshes without externally partameterising their possible paths of deform or relying on intermediate reps.
+Convolutions are not trivial in non-euclidean domain,.
+Volumetric convolutions that work on 3D voxels suffer from high comutational cost, so only efficient for low-res 3D volumes.
+Point clouds do not have smooth underying 3D structure.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Variational autoencoders and Generative Adversarial Networks represent data from complex high-dimensional distributions using a low dimensioanl latent variables.
+Mainly focised on 2D airfoil desing.
+In 3D, dimensionality reduction usually applied in two ways:
+- Geometries built by stacking multiple profiles.
+- Deriving a compact representation for 3D airfoil by incorporating a FFD layer. (free form deformation).
+Cites: Using VAE with graph conv.
+reconsteuct 3D triangular meshes from single input images by deforming an initial or template mesh
+gVAE - uses spectral graph convolutions and optos for an autoencoder to create gen model.
+Represented as Face-vertex strcuture so that triangular meshes are defined as M=(V,F,E) V = |R^nx3
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Pytorch Geometric</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Scale the node features by normalising mesh at 0,0,0 and scale to fit in cube with unitary edges.</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -153,6 +434,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
@@ -258,7 +546,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -282,6 +570,12 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="17" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -618,25 +912,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C6962E3-151D-1D4A-A12F-943D212A2AA3}">
-  <dimension ref="A1:L30"/>
+  <dimension ref="A1:M30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F2" zoomScale="170" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.83203125" style="4"/>
     <col min="2" max="2" width="18.83203125" style="4" customWidth="1"/>
-    <col min="3" max="6" width="10.83203125" style="4"/>
-    <col min="7" max="7" width="8.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.6640625" style="4" customWidth="1"/>
-    <col min="9" max="9" width="33.83203125" style="4" customWidth="1"/>
-    <col min="10" max="10" width="25" style="4" customWidth="1"/>
-    <col min="11" max="16384" width="10.83203125" style="4"/>
+    <col min="3" max="3" width="17.33203125" style="4" customWidth="1"/>
+    <col min="4" max="5" width="10.83203125" style="4"/>
+    <col min="6" max="6" width="8.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.6640625" style="4" customWidth="1"/>
+    <col min="8" max="8" width="107.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="72.6640625" style="4" customWidth="1"/>
+    <col min="10" max="10" width="57.33203125" style="4" customWidth="1"/>
+    <col min="11" max="11" width="25" style="4" customWidth="1"/>
+    <col min="12" max="12" width="22.6640625" style="4" customWidth="1"/>
+    <col min="13" max="13" width="49.33203125" style="4" customWidth="1"/>
+    <col min="14" max="16384" width="10.83203125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -650,153 +950,244 @@
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="M1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" ht="306" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:13" ht="187" x14ac:dyDescent="0.2">
       <c r="A2" s="5">
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="D2" s="6">
+        <v>42583</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" s="6">
-        <v>42583</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>22</v>
-      </c>
       <c r="G2" s="5" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H2" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="K2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5" t="s">
+        <v>15</v>
+      </c>
       <c r="L2" s="5"/>
-    </row>
-    <row r="3" spans="1:12" ht="238" x14ac:dyDescent="0.2">
+      <c r="M2" s="5"/>
+    </row>
+    <row r="3" spans="1:13" ht="409" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="7">
         <v>2</v>
       </c>
       <c r="B3" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="8">
+        <v>44562</v>
+      </c>
+      <c r="E3" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="F3" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="G3" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="E3" s="8">
-        <v>44562</v>
-      </c>
-      <c r="F3" s="7" t="s">
+      <c r="H3" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="G3" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H3" s="7" t="s">
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+    </row>
+    <row r="4" spans="1:13" ht="340" x14ac:dyDescent="0.2">
+      <c r="A4" s="7">
+        <v>3</v>
+      </c>
+      <c r="B4" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="I3" s="7" t="s">
+      <c r="C4" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="J3" s="7"/>
-      <c r="K3" s="7"/>
-      <c r="L3" s="7"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A4" s="7"/>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
+      <c r="D4" s="7">
+        <v>2021</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>10</v>
+      </c>
       <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
+      <c r="H4" s="7" t="s">
+        <v>27</v>
+      </c>
       <c r="I4" s="7"/>
       <c r="J4" s="7"/>
-      <c r="K4" s="7"/>
-      <c r="L4" s="7"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A5" s="7"/>
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
-      <c r="K5" s="7"/>
-      <c r="L5" s="7"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A6" s="7"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
+      <c r="K4" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M4" s="7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="404" x14ac:dyDescent="0.2">
+      <c r="A5" s="7">
+        <v>4</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" s="7">
+        <v>2024</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="I5" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="J5" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="K5" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="M5" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A6" s="7">
+        <v>5</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="D6" s="7">
+        <v>2022</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>46</v>
+      </c>
       <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
+      <c r="H6" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="I6" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>50</v>
+      </c>
       <c r="K6" s="7"/>
       <c r="L6" s="7"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M6" s="7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="404" x14ac:dyDescent="0.2">
       <c r="A7" s="7"/>
       <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
+      <c r="C7" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="D7" s="7">
+        <v>2024</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>57</v>
+      </c>
       <c r="J7" s="7"/>
-      <c r="K7" s="7"/>
+      <c r="K7" s="7" t="s">
+        <v>58</v>
+      </c>
       <c r="L7" s="7"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M7" s="7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="7"/>
       <c r="B8" s="7"/>
       <c r="C8" s="7"/>
@@ -809,8 +1200,9 @@
       <c r="J8" s="7"/>
       <c r="K8" s="7"/>
       <c r="L8" s="7"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M8" s="7"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="7"/>
       <c r="B9" s="7"/>
       <c r="C9" s="7"/>
@@ -823,8 +1215,9 @@
       <c r="J9" s="7"/>
       <c r="K9" s="7"/>
       <c r="L9" s="7"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M9" s="7"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="7"/>
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
@@ -837,8 +1230,9 @@
       <c r="J10" s="7"/>
       <c r="K10" s="7"/>
       <c r="L10" s="7"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M10" s="7"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" s="7"/>
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
@@ -851,8 +1245,9 @@
       <c r="J11" s="7"/>
       <c r="K11" s="7"/>
       <c r="L11" s="7"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="7"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" s="7"/>
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
@@ -865,8 +1260,9 @@
       <c r="J12" s="7"/>
       <c r="K12" s="7"/>
       <c r="L12" s="7"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M12" s="7"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" s="7"/>
       <c r="B13" s="7"/>
       <c r="C13" s="7"/>
@@ -879,8 +1275,9 @@
       <c r="J13" s="7"/>
       <c r="K13" s="7"/>
       <c r="L13" s="7"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M13" s="7"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" s="7"/>
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
@@ -893,8 +1290,9 @@
       <c r="J14" s="7"/>
       <c r="K14" s="7"/>
       <c r="L14" s="7"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M14" s="7"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" s="7"/>
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
@@ -907,8 +1305,9 @@
       <c r="J15" s="7"/>
       <c r="K15" s="7"/>
       <c r="L15" s="7"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M15" s="7"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" s="7"/>
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
@@ -921,8 +1320,9 @@
       <c r="J16" s="7"/>
       <c r="K16" s="7"/>
       <c r="L16" s="7"/>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="7"/>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" s="7"/>
       <c r="B17" s="7"/>
       <c r="C17" s="7"/>
@@ -935,8 +1335,9 @@
       <c r="J17" s="7"/>
       <c r="K17" s="7"/>
       <c r="L17" s="7"/>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M17" s="7"/>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" s="7"/>
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
@@ -949,8 +1350,9 @@
       <c r="J18" s="7"/>
       <c r="K18" s="7"/>
       <c r="L18" s="7"/>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M18" s="7"/>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" s="7"/>
       <c r="B19" s="7"/>
       <c r="C19" s="7"/>
@@ -963,8 +1365,9 @@
       <c r="J19" s="7"/>
       <c r="K19" s="7"/>
       <c r="L19" s="7"/>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="7"/>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" s="7"/>
       <c r="B20" s="7"/>
       <c r="C20" s="7"/>
@@ -977,8 +1380,9 @@
       <c r="J20" s="7"/>
       <c r="K20" s="7"/>
       <c r="L20" s="7"/>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M20" s="7"/>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" s="7"/>
       <c r="B21" s="7"/>
       <c r="C21" s="7"/>
@@ -991,8 +1395,9 @@
       <c r="J21" s="7"/>
       <c r="K21" s="7"/>
       <c r="L21" s="7"/>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M21" s="7"/>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" s="7"/>
       <c r="B22" s="7"/>
       <c r="C22" s="7"/>
@@ -1005,8 +1410,9 @@
       <c r="J22" s="7"/>
       <c r="K22" s="7"/>
       <c r="L22" s="7"/>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M22" s="7"/>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" s="7"/>
       <c r="B23" s="7"/>
       <c r="C23" s="7"/>
@@ -1019,8 +1425,9 @@
       <c r="J23" s="7"/>
       <c r="K23" s="7"/>
       <c r="L23" s="7"/>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M23" s="7"/>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24" s="7"/>
       <c r="B24" s="7"/>
       <c r="C24" s="7"/>
@@ -1033,8 +1440,9 @@
       <c r="J24" s="7"/>
       <c r="K24" s="7"/>
       <c r="L24" s="7"/>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M24" s="7"/>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25" s="7"/>
       <c r="B25" s="7"/>
       <c r="C25" s="7"/>
@@ -1047,8 +1455,9 @@
       <c r="J25" s="7"/>
       <c r="K25" s="7"/>
       <c r="L25" s="7"/>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M25" s="7"/>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26" s="7"/>
       <c r="B26" s="7"/>
       <c r="C26" s="7"/>
@@ -1061,8 +1470,9 @@
       <c r="J26" s="7"/>
       <c r="K26" s="7"/>
       <c r="L26" s="7"/>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M26" s="7"/>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A27" s="7"/>
       <c r="B27" s="7"/>
       <c r="C27" s="7"/>
@@ -1075,8 +1485,9 @@
       <c r="J27" s="7"/>
       <c r="K27" s="7"/>
       <c r="L27" s="7"/>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M27" s="7"/>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28" s="7"/>
       <c r="B28" s="7"/>
       <c r="C28" s="7"/>
@@ -1089,8 +1500,9 @@
       <c r="J28" s="7"/>
       <c r="K28" s="7"/>
       <c r="L28" s="7"/>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M28" s="7"/>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A29" s="7"/>
       <c r="B29" s="7"/>
       <c r="C29" s="7"/>
@@ -1103,8 +1515,9 @@
       <c r="J29" s="7"/>
       <c r="K29" s="7"/>
       <c r="L29" s="7"/>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M29" s="7"/>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A30" s="7"/>
       <c r="B30" s="7"/>
       <c r="C30" s="7"/>
@@ -1117,6 +1530,7 @@
       <c r="J30" s="7"/>
       <c r="K30" s="7"/>
       <c r="L30" s="7"/>
+      <c r="M30" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/01-planning/Literature Matrix .xlsx
+++ b/01-planning/Literature Matrix .xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joshuahellewell/Desktop/02-msc/01-modules/MSc Project - 771952/01-planning/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C808C4A0-05C0-0E49-B6BD-FE81EF9367F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90E25008-8A6E-764F-8C0A-8181C3A5D39E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="160" yWindow="920" windowWidth="34240" windowHeight="21260" xr2:uid="{781DB44C-E4D8-9E42-A974-8BBF4B8E3D6B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -572,10 +572,10 @@
     <xf numFmtId="17" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -914,7 +914,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C6962E3-151D-1D4A-A12F-943D212A2AA3}">
   <dimension ref="A1:M30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="H7" sqref="H7"/>
     </sheetView>
@@ -927,7 +927,7 @@
     <col min="4" max="5" width="10.83203125" style="4"/>
     <col min="6" max="6" width="8.33203125" style="4" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.6640625" style="4" customWidth="1"/>
-    <col min="8" max="8" width="107.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="108.1640625" style="4" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="72.6640625" style="4" customWidth="1"/>
     <col min="10" max="10" width="57.33203125" style="4" customWidth="1"/>
     <col min="11" max="11" width="25" style="4" customWidth="1"/>
@@ -1109,7 +1109,7 @@
       <c r="J5" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="K5" s="10" t="s">
+      <c r="K5" s="9" t="s">
         <v>41</v>
       </c>
       <c r="L5" s="7" t="s">
@@ -1119,7 +1119,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A6" s="7">
         <v>5</v>
       </c>
@@ -1154,7 +1154,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="404" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A7" s="7"/>
       <c r="B7" s="7"/>
       <c r="C7" s="7" t="s">
@@ -1240,7 +1240,7 @@
       <c r="E11" s="7"/>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
+      <c r="H11" s="10"/>
       <c r="I11" s="7"/>
       <c r="J11" s="7"/>
       <c r="K11" s="7"/>

--- a/01-planning/Literature Matrix .xlsx
+++ b/01-planning/Literature Matrix .xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joshuahellewell/Desktop/02-msc/01-modules/MSc Project - 771952/01-planning/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90E25008-8A6E-764F-8C0A-8181C3A5D39E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06704926-6E66-8D41-8858-0BD8C3AF97FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="160" yWindow="920" windowWidth="34240" windowHeight="21260" xr2:uid="{781DB44C-E4D8-9E42-A974-8BBF4B8E3D6B}"/>
   </bookViews>

--- a/01-planning/Literature Matrix .xlsx
+++ b/01-planning/Literature Matrix .xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joshuahellewell/Desktop/02-msc/01-modules/MSc Project - 771952/01-planning/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06704926-6E66-8D41-8858-0BD8C3AF97FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F930E4B2-D261-BD45-83AA-5E9758488FD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="160" yWindow="920" windowWidth="34240" windowHeight="21260" xr2:uid="{781DB44C-E4D8-9E42-A974-8BBF4B8E3D6B}"/>
+    <workbookView xWindow="34480" yWindow="660" windowWidth="34160" windowHeight="27980" xr2:uid="{781DB44C-E4D8-9E42-A974-8BBF4B8E3D6B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="64">
   <si>
     <t>Source ID</t>
   </si>
@@ -54,9 +54,6 @@
   </si>
   <si>
     <t>Methods</t>
-  </si>
-  <si>
-    <t>Journal</t>
   </si>
   <si>
     <t>Future</t>
@@ -352,12 +349,6 @@
     <t>Graph VAE</t>
   </si>
   <si>
-    <t>GA
-Shape Optimisation
-Pareto front.
-Geometric Deep Learning.</t>
-  </si>
-  <si>
     <t>Direct optimisation of non-parametric 3D geometries is still limited.
 Learn latent representation of non-parametric 3D datasets.
 Exploration by a genetic algorithm.
@@ -378,6 +369,21 @@
 Convolutions are not trivial in non-euclidean domain,.
 Volumetric convolutions that work on 3D voxels suffer from high comutational cost, so only efficient for low-res 3D volumes.
 Point clouds do not have smooth underying 3D structure.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Aerodynamic shape optimization using graph variational autoencoders and genetic algorithms. Structural and Multidisciplinary Optimization</t>
+  </si>
+  <si>
+    <t>Source</t>
+  </si>
+  <si>
+    <t>Arxiv</t>
+  </si>
+  <si>
+    <t>Quartile</t>
+  </si>
+  <si>
+    <t>Q1</t>
   </si>
   <si>
     <r>
@@ -410,8 +416,16 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
-Scale the node features by normalising mesh at 0,0,0 and scale to fit in cube with unitary edges.</t>
+Scale the node features by normalising mesh at 0,0,0 and scale to fit in cube with unitary edges.
+VAE can produce near original and new content with low dimensional vector.</t>
     </r>
+  </si>
+  <si>
+    <t>GA
+Shape Optimisation
+Pareto front.
+Geometric Deep Learning.
+Variational Bayesian methods.</t>
   </si>
 </sst>
 </file>
@@ -912,11 +926,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C6962E3-151D-1D4A-A12F-943D212A2AA3}">
-  <dimension ref="A1:M30"/>
+  <dimension ref="A1:N30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H7" sqref="H7"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -924,19 +938,21 @@
     <col min="1" max="1" width="10.83203125" style="4"/>
     <col min="2" max="2" width="18.83203125" style="4" customWidth="1"/>
     <col min="3" max="3" width="17.33203125" style="4" customWidth="1"/>
-    <col min="4" max="5" width="10.83203125" style="4"/>
+    <col min="4" max="4" width="10.83203125" style="4"/>
+    <col min="5" max="5" width="16.33203125" style="4" customWidth="1"/>
     <col min="6" max="6" width="8.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.6640625" style="4" customWidth="1"/>
-    <col min="8" max="8" width="108.1640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="72.6640625" style="4" customWidth="1"/>
-    <col min="10" max="10" width="57.33203125" style="4" customWidth="1"/>
-    <col min="11" max="11" width="25" style="4" customWidth="1"/>
-    <col min="12" max="12" width="22.6640625" style="4" customWidth="1"/>
-    <col min="13" max="13" width="49.33203125" style="4" customWidth="1"/>
-    <col min="14" max="16384" width="10.83203125" style="4"/>
+    <col min="7" max="7" width="8.33203125" style="4" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="4" customWidth="1"/>
+    <col min="9" max="9" width="108.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="72.6640625" style="4" customWidth="1"/>
+    <col min="11" max="11" width="57.33203125" style="4" customWidth="1"/>
+    <col min="12" max="12" width="25" style="4" customWidth="1"/>
+    <col min="13" max="13" width="22.6640625" style="4" customWidth="1"/>
+    <col min="14" max="14" width="49.33203125" style="4" customWidth="1"/>
+    <col min="15" max="16384" width="10.83203125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -950,244 +966,259 @@
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>6</v>
+        <v>58</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>13</v>
+        <v>60</v>
       </c>
       <c r="H1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="M1" s="3" t="s">
+      <c r="M1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="N1" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="187" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" ht="187" x14ac:dyDescent="0.2">
       <c r="A2" s="5">
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>8</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>9</v>
       </c>
       <c r="D2" s="6">
         <v>42583</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>19</v>
+        <v>59</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="L2" s="5"/>
       <c r="M2" s="5"/>
-    </row>
-    <row r="3" spans="1:13" ht="409" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N2" s="5"/>
+    </row>
+    <row r="3" spans="1:14" ht="409" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="7">
         <v>2</v>
       </c>
       <c r="B3" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="7" t="s">
         <v>17</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>18</v>
       </c>
       <c r="D3" s="8">
         <v>44562</v>
       </c>
       <c r="E3" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="G3" s="7"/>
+      <c r="H3" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="I3" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="H3" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="L3" s="7"/>
       <c r="M3" s="7"/>
-    </row>
-    <row r="4" spans="1:13" ht="340" x14ac:dyDescent="0.2">
+      <c r="N3" s="7"/>
+    </row>
+    <row r="4" spans="1:14" ht="340" x14ac:dyDescent="0.2">
       <c r="A4" s="7">
         <v>3</v>
       </c>
       <c r="B4" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="7" t="s">
         <v>24</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>25</v>
       </c>
       <c r="D4" s="7">
         <v>2021</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="F4" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7" t="s">
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7" t="s">
         <v>27</v>
-      </c>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>30</v>
       </c>
       <c r="M4" s="7" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" ht="404" x14ac:dyDescent="0.2">
+      <c r="N4" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="404" x14ac:dyDescent="0.2">
       <c r="A5" s="7">
         <v>4</v>
       </c>
       <c r="B5" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="7" t="s">
         <v>31</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>32</v>
       </c>
       <c r="D5" s="7">
         <v>2024</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7"/>
+      <c r="H5" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="I5" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="J5" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="K5" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="L5" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="M5" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="N5" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="H5" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="I5" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="J5" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="K5" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="M5" s="7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" ht="409.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:14" ht="272" x14ac:dyDescent="0.2">
       <c r="A6" s="7">
         <v>5</v>
       </c>
       <c r="B6" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C6" s="7" t="s">
         <v>43</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>44</v>
       </c>
       <c r="D6" s="7">
         <v>2022</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="F6" s="7" t="s">
-        <v>46</v>
-      </c>
       <c r="G6" s="7"/>
-      <c r="H6" s="7" t="s">
-        <v>48</v>
-      </c>
+      <c r="H6" s="7"/>
       <c r="I6" s="7" t="s">
         <v>47</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="L6" s="7"/>
+      <c r="M6" s="7"/>
+      <c r="N6" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="K6" s="7"/>
-      <c r="L6" s="7"/>
-      <c r="M6" s="7" t="s">
+    </row>
+    <row r="7" spans="1:14" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A7" s="7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="7" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="A7" s="7"/>
-      <c r="B7" s="7"/>
       <c r="C7" s="7" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="D7" s="7">
         <v>2024</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="G7" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="I7" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="J7" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="H7" s="7" t="s">
+      <c r="K7" s="7"/>
+      <c r="L7" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="I7" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="J7" s="7"/>
-      <c r="K7" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="L7" s="7"/>
-      <c r="M7" s="7" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M7" s="7"/>
+      <c r="N7" s="7" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="7"/>
       <c r="B8" s="7"/>
       <c r="C8" s="7"/>
@@ -1201,8 +1232,9 @@
       <c r="K8" s="7"/>
       <c r="L8" s="7"/>
       <c r="M8" s="7"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N8" s="7"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" s="7"/>
       <c r="B9" s="7"/>
       <c r="C9" s="7"/>
@@ -1216,8 +1248,9 @@
       <c r="K9" s="7"/>
       <c r="L9" s="7"/>
       <c r="M9" s="7"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N9" s="7"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="7"/>
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
@@ -1231,8 +1264,9 @@
       <c r="K10" s="7"/>
       <c r="L10" s="7"/>
       <c r="M10" s="7"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N10" s="7"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" s="7"/>
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
@@ -1240,14 +1274,15 @@
       <c r="E11" s="7"/>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="10"/>
       <c r="J11" s="7"/>
       <c r="K11" s="7"/>
       <c r="L11" s="7"/>
       <c r="M11" s="7"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="7"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" s="7"/>
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
@@ -1261,8 +1296,9 @@
       <c r="K12" s="7"/>
       <c r="L12" s="7"/>
       <c r="M12" s="7"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N12" s="7"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" s="7"/>
       <c r="B13" s="7"/>
       <c r="C13" s="7"/>
@@ -1276,8 +1312,9 @@
       <c r="K13" s="7"/>
       <c r="L13" s="7"/>
       <c r="M13" s="7"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N13" s="7"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" s="7"/>
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
@@ -1291,8 +1328,9 @@
       <c r="K14" s="7"/>
       <c r="L14" s="7"/>
       <c r="M14" s="7"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N14" s="7"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" s="7"/>
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
@@ -1306,8 +1344,9 @@
       <c r="K15" s="7"/>
       <c r="L15" s="7"/>
       <c r="M15" s="7"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N15" s="7"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" s="7"/>
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
@@ -1321,8 +1360,9 @@
       <c r="K16" s="7"/>
       <c r="L16" s="7"/>
       <c r="M16" s="7"/>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="7"/>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" s="7"/>
       <c r="B17" s="7"/>
       <c r="C17" s="7"/>
@@ -1336,8 +1376,9 @@
       <c r="K17" s="7"/>
       <c r="L17" s="7"/>
       <c r="M17" s="7"/>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N17" s="7"/>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" s="7"/>
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
@@ -1351,8 +1392,9 @@
       <c r="K18" s="7"/>
       <c r="L18" s="7"/>
       <c r="M18" s="7"/>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N18" s="7"/>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19" s="7"/>
       <c r="B19" s="7"/>
       <c r="C19" s="7"/>
@@ -1366,8 +1408,9 @@
       <c r="K19" s="7"/>
       <c r="L19" s="7"/>
       <c r="M19" s="7"/>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="7"/>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" s="7"/>
       <c r="B20" s="7"/>
       <c r="C20" s="7"/>
@@ -1381,8 +1424,9 @@
       <c r="K20" s="7"/>
       <c r="L20" s="7"/>
       <c r="M20" s="7"/>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N20" s="7"/>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21" s="7"/>
       <c r="B21" s="7"/>
       <c r="C21" s="7"/>
@@ -1396,8 +1440,9 @@
       <c r="K21" s="7"/>
       <c r="L21" s="7"/>
       <c r="M21" s="7"/>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N21" s="7"/>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22" s="7"/>
       <c r="B22" s="7"/>
       <c r="C22" s="7"/>
@@ -1411,8 +1456,9 @@
       <c r="K22" s="7"/>
       <c r="L22" s="7"/>
       <c r="M22" s="7"/>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N22" s="7"/>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23" s="7"/>
       <c r="B23" s="7"/>
       <c r="C23" s="7"/>
@@ -1426,8 +1472,9 @@
       <c r="K23" s="7"/>
       <c r="L23" s="7"/>
       <c r="M23" s="7"/>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N23" s="7"/>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24" s="7"/>
       <c r="B24" s="7"/>
       <c r="C24" s="7"/>
@@ -1441,8 +1488,9 @@
       <c r="K24" s="7"/>
       <c r="L24" s="7"/>
       <c r="M24" s="7"/>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N24" s="7"/>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25" s="7"/>
       <c r="B25" s="7"/>
       <c r="C25" s="7"/>
@@ -1456,8 +1504,9 @@
       <c r="K25" s="7"/>
       <c r="L25" s="7"/>
       <c r="M25" s="7"/>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N25" s="7"/>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26" s="7"/>
       <c r="B26" s="7"/>
       <c r="C26" s="7"/>
@@ -1471,8 +1520,9 @@
       <c r="K26" s="7"/>
       <c r="L26" s="7"/>
       <c r="M26" s="7"/>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N26" s="7"/>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A27" s="7"/>
       <c r="B27" s="7"/>
       <c r="C27" s="7"/>
@@ -1486,8 +1536,9 @@
       <c r="K27" s="7"/>
       <c r="L27" s="7"/>
       <c r="M27" s="7"/>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N27" s="7"/>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A28" s="7"/>
       <c r="B28" s="7"/>
       <c r="C28" s="7"/>
@@ -1501,8 +1552,9 @@
       <c r="K28" s="7"/>
       <c r="L28" s="7"/>
       <c r="M28" s="7"/>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N28" s="7"/>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A29" s="7"/>
       <c r="B29" s="7"/>
       <c r="C29" s="7"/>
@@ -1516,8 +1568,9 @@
       <c r="K29" s="7"/>
       <c r="L29" s="7"/>
       <c r="M29" s="7"/>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N29" s="7"/>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A30" s="7"/>
       <c r="B30" s="7"/>
       <c r="C30" s="7"/>
@@ -1531,6 +1584,7 @@
       <c r="K30" s="7"/>
       <c r="L30" s="7"/>
       <c r="M30" s="7"/>
+      <c r="N30" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/01-planning/Literature Matrix .xlsx
+++ b/01-planning/Literature Matrix .xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joshuahellewell/Desktop/02-msc/01-modules/MSc Project - 771952/01-planning/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F930E4B2-D261-BD45-83AA-5E9758488FD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AEB5861-4D92-614A-9DE2-2723BB04E71B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="34480" yWindow="660" windowWidth="34160" windowHeight="27980" xr2:uid="{781DB44C-E4D8-9E42-A974-8BBF4B8E3D6B}"/>
+    <workbookView xWindow="160" yWindow="660" windowWidth="68480" windowHeight="27980" xr2:uid="{781DB44C-E4D8-9E42-A974-8BBF4B8E3D6B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -357,13 +357,6 @@
 Allows working with .stl , .ply and .obj</t>
   </si>
   <si>
-    <t>Parameterising aerodynamic shapes: B-splines, Bezier curves, FFD, class-shape transforms, Parsec and Bezier PARSEC.
-Computational cost greatly affected by compactness of design space.
-For 2D airfoilds - 10s of design variables. 
-For 3D - 100s of shape design variables for wing problems.
-PCA or SVD work for simple - but real world requires non-linearities.</t>
-  </si>
-  <si>
     <t>Deep Learning for ASO in 3D limited to dimensionality reduction with free-form deformation methods or 2D sketches that are subsequently stacked.
 None of the work with 3D meshes without externally partameterising their possible paths of deform or relying on intermediate reps.
 Convolutions are not trivial in non-euclidean domain,.
@@ -384,6 +377,14 @@
   </si>
   <si>
     <t>Q1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GA
+Shape Optimisation
+Pareto front.
+Geometric Deep Learning.
+Variational Bayesian methods.
+Reparameterisation trick </t>
   </si>
   <si>
     <r>
@@ -417,15 +418,19 @@
       </rPr>
       <t xml:space="preserve">
 Scale the node features by normalising mesh at 0,0,0 and scale to fit in cube with unitary edges.
-VAE can produce near original and new content with low dimensional vector.</t>
+VAE can produce near original and new content with low dimensional vector.
+VAE regularised through Variational Bayesian methods to ensure latent space has good properies.
+Spectral convolutions Chebyshev polynomial filters. 
+KL divergence to make distribution of encoder close to multivariate normal distribution.</t>
     </r>
   </si>
   <si>
-    <t>GA
-Shape Optimisation
-Pareto front.
-Geometric Deep Learning.
-Variational Bayesian methods.</t>
+    <t>Parameterising aerodynamic shapes: B-splines, Bezier curves, FFD, class-shape transforms, Parsec and Bezier PARSEC.
+Computational cost greatly affected by compactness of design space.
+For 2D airfoilds - 10s of design variables. 
+For 3D - 100s of shape design variables for wing problems.
+PCA or SVD work for simple - but real world requires non-linearities.
+Default - set to 4 dimensions</t>
   </si>
 </sst>
 </file>
@@ -928,9 +933,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C6962E3-151D-1D4A-A12F-943D212A2AA3}">
   <dimension ref="A1:N30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -948,7 +953,7 @@
     <col min="11" max="11" width="57.33203125" style="4" customWidth="1"/>
     <col min="12" max="12" width="25" style="4" customWidth="1"/>
     <col min="13" max="13" width="22.6640625" style="4" customWidth="1"/>
-    <col min="14" max="14" width="49.33203125" style="4" customWidth="1"/>
+    <col min="14" max="14" width="82.1640625" style="4" bestFit="1" customWidth="1"/>
     <col min="15" max="16384" width="10.83203125" style="4"/>
   </cols>
   <sheetData>
@@ -966,13 +971,13 @@
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>12</v>
@@ -1010,7 +1015,7 @@
         <v>42583</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>9</v>
@@ -1186,7 +1191,7 @@
         <v>51</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D7" s="7">
         <v>2024</v>
@@ -1198,20 +1203,20 @@
         <v>53</v>
       </c>
       <c r="G7" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="H7" s="7" t="s">
         <v>61</v>
-      </c>
-      <c r="H7" s="7" t="s">
-        <v>63</v>
       </c>
       <c r="I7" s="7" t="s">
         <v>54</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="K7" s="7"/>
       <c r="L7" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="M7" s="7"/>
       <c r="N7" s="7" t="s">

--- a/01-planning/Literature Matrix .xlsx
+++ b/01-planning/Literature Matrix .xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joshuahellewell/Desktop/02-msc/01-modules/MSc Project - 771952/01-planning/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AEB5861-4D92-614A-9DE2-2723BB04E71B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DE9F582-26CC-6740-9CB5-022988B6B5DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="160" yWindow="660" windowWidth="68480" windowHeight="27980" xr2:uid="{781DB44C-E4D8-9E42-A974-8BBF4B8E3D6B}"/>
   </bookViews>
@@ -935,7 +935,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="G1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N6" sqref="N6"/>
+      <selection pane="bottomLeft" activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
